--- a/asst2/all_data.xlsx
+++ b/asst2/all_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20925" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="1_c4_big" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2_c2_big'!$B$1:$S$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3_c1_big'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="44">
   <si>
     <t>interfaceId</t>
   </si>
@@ -152,12 +157,15 @@
   <si>
     <t>std</t>
   </si>
+  <si>
+    <t>standard error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +297,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,7 +615,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -634,12 +658,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -668,11 +695,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -690,19 +719,64 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Ribbon</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'1_c4_big'!$W$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>364.9322779025686</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('1_c4_big'!$W$8,'1_c4_big'!$W$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>209.5168739361592</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>364.9322779025686</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strLit>
               <c:ptCount val="2"/>
@@ -721,10 +795,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1958.4395604395604</c:v>
+                  <c:v>1958.43956043956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3282.3757763975154</c:v>
+                  <c:v>3282.375776397515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,6 +810,42 @@
           <c:tx>
             <c:v>CM</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('1_c4_big'!$W$9,'1_c4_big'!$W$11)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>457.7225202342518</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1014.379828857923</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('1_c4_big'!$W$9,'1_c4_big'!$W$11)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>457.7225202342518</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1014.379828857923</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strLit>
               <c:ptCount val="2"/>
@@ -754,41 +864,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2193.1388888888887</c:v>
+                  <c:v>2193.138888888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2294.8921568627452</c:v>
+                  <c:v>2294.892156862745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68224512"/>
-        <c:axId val="68256128"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2124768680"/>
+        <c:axId val="2124771656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68224512"/>
+        <c:axId val="2124768680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68256128"/>
+        <c:crossAx val="2124771656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68256128"/>
+        <c:axId val="2124771656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68224512"/>
+        <c:crossAx val="2124768680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -796,8 +922,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -809,19 +938,32 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Ribbon</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
               <c:ptCount val="2"/>
@@ -835,15 +977,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('1_c4_big'!$W$8,'1_c4_big'!$W$10)</c:f>
+              <c:f>('1_c4_big'!$X$8,'1_c4_big'!$X$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.3698630136986301E-2</c:v>
+                  <c:v>0.0136986301369863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22429906542056074</c:v>
+                  <c:v>0.224299065420561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,6 +997,7 @@
           <c:tx>
             <c:v>CM</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
               <c:ptCount val="2"/>
@@ -868,46 +1011,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('1_c4_big'!$W$9,'1_c4_big'!$W$11)</c:f>
+              <c:f>('1_c4_big'!$X$9,'1_c4_big'!$X$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.834862385321101E-2</c:v>
+                  <c:v>0.018348623853211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3665338645418322E-2</c:v>
+                  <c:v>0.0836653386454183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68254720"/>
-        <c:axId val="68256896"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2125839432"/>
+        <c:axId val="2125842408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68254720"/>
+        <c:axId val="2125839432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68256896"/>
+        <c:crossAx val="2125842408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68256896"/>
+        <c:axId val="2125842408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68254720"/>
+        <c:crossAx val="2125839432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,8 +1074,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -966,7 +1128,7 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1275,27 +1437,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W828"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X828"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" customWidth="1"/>
+    <col min="22" max="23" width="20.5" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1354,7 +1516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1413,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1472,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1531,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1590,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1649,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1714,10 +1876,13 @@
         <v>42</v>
       </c>
       <c r="W7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1787,11 +1952,15 @@
         <v>662.55052987663089</v>
       </c>
       <c r="W8">
+        <f>V8/SQRT(10)</f>
+        <v>209.51687393615921</v>
+      </c>
+      <c r="X8">
         <f>2/(506-360)</f>
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1861,11 +2030,15 @@
         <v>1447.4457002927434</v>
       </c>
       <c r="W9">
+        <f t="shared" ref="W9:W11" si="0">V9/SQRT(10)</f>
+        <v>457.72252023425176</v>
+      </c>
+      <c r="X9">
         <f>2/109</f>
         <v>1.834862385321101E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1935,11 +2108,15 @@
         <v>1154.0171898856515</v>
       </c>
       <c r="W10">
+        <f t="shared" si="0"/>
+        <v>364.93227790256861</v>
+      </c>
+      <c r="X10" s="2">
         <f>(828-781+1)/(720-506)</f>
         <v>0.22429906542056074</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2004,16 +2181,20 @@
         <f>AVERAGE(R110:R415)</f>
         <v>2294.8921568627452</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <f>STDEV(R110:R415)</f>
         <v>3207.7506717228325</v>
       </c>
       <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1014.3798288579226</v>
+      </c>
+      <c r="X11">
         <f>21/(360-109)</f>
         <v>8.3665338645418322E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2072,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2131,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2190,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2249,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>2</v>
       </c>
@@ -50224,19 +50405,25 @@
     <sortCondition descending="1" ref="S2:S828"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S73" sqref="A2:S73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
@@ -54609,18 +54796,23 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S72" sqref="A2:S72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
@@ -58928,18 +59120,23 @@
     <sortCondition descending="1" ref="S2:S72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y181"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="B181" sqref="A2:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
@@ -69678,5 +69875,10 @@
     <sortCondition descending="1" ref="S2:S181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>